--- a/race_results_2021-2022.xlsx
+++ b/race_results_2021-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryLaw\Documents\GitHub\terrysclaw\download-racing-result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035CAF12-95D5-407F-8910-EAB733045E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B304E77B-E676-48AC-B1AB-4D3D424DEA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5452,7 +5452,7 @@
   <dimension ref="A1:AB757"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AA4"/>
+      <selection activeCell="Y9" sqref="Y2:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
